--- a/xlsx/E pluribus unum_intext.xlsx
+++ b/xlsx/E pluribus unum_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国国徽</t>
   </si>
   <si>
-    <t>政策_政策_美國_E pluribus unum</t>
+    <t>政策_政策_美国_E pluribus unum</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US-stub</t>
